--- a/dutch_auction_data.xlsx
+++ b/dutch_auction_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CS\LLMauctions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E3C442A-C360-4842-8863-2AB079122E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5213E6-371B-4EB7-8B57-19EB0A2DD86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="3" activeTab="4" xr2:uid="{E9F685E3-988E-4739-A06A-4D252907548F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9F685E3-988E-4739-A06A-4D252907548F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sonnet" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="21">
   <si>
     <t>Round 0</t>
   </si>
@@ -73,6 +73,36 @@
   </si>
   <si>
     <t>Round 10</t>
+  </si>
+  <si>
+    <t>Sonnet 3.6</t>
+  </si>
+  <si>
+    <t>GPT-4o</t>
+  </si>
+  <si>
+    <t>GPT-4o-mini</t>
+  </si>
+  <si>
+    <t>gemini 1.5 pro</t>
+  </si>
+  <si>
+    <t>gemini 1.5 flash</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>std.dev</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>min</t>
   </si>
 </sst>
 </file>
@@ -444,10 +474,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69652043-A94F-4DA0-AB2D-268CA1B67267}">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>MAX(C2:C12)</f>
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>37.909999999999997</v>
+      </c>
+      <c r="C18">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>0.94</v>
+      </c>
+      <c r="E18">
+        <v>39</v>
+      </c>
+      <c r="F18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>40</v>
+      </c>
+      <c r="F19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>40</v>
+      </c>
+      <c r="F21">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE14D2F-4707-4EB4-B5B8-7BADCFB1DD06}">
+  <dimension ref="A2:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -468,10 +752,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -479,10 +763,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -490,10 +774,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -501,10 +785,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -512,10 +796,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -523,10 +807,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -534,10 +818,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -545,10 +829,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -556,10 +840,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -567,146 +851,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE14D2F-4707-4EB4-B5B8-7BADCFB1DD06}">
-  <dimension ref="A2:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
         <v>7</v>
       </c>
       <c r="C12">
         <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <f>AVERAGE(C2:C12)</f>
+        <v>37.909090909090907</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <f>MEDIAN(C2:C12)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <f>_xlfn.STDEV.S(C2:C12)</f>
+        <v>0.94387980744853894</v>
       </c>
     </row>
   </sheetData>
@@ -719,7 +885,7 @@
   <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,7 +1021,7 @@
   <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,7 +1156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F97B7F-8FE1-4C1A-B580-25B601D5B68A}">
   <dimension ref="A2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
